--- a/data/processed/state_overviews/new-mexico_overview.xlsx
+++ b/data/processed/state_overviews/new-mexico_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>772</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Bernalillo County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>283</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Chaves County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Cibola County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>5</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Colfax County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Curry County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>De Baca County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Doña Ana County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>53</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Eddy County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>20</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>14</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Guadalupe County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Hidalgo County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Lea County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>21</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>10</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Los Alamos County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>10</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Luna County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>McKinley County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>21</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Mora County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Otero County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>15</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Quay County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Rio Arriba County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>17</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Roosevelt County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>5</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>San Juan County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>41</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>San Miguel County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>8</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Sandoval County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>32</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Santa Fe County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>143</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Sierra County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>5</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Socorro County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Taos County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>16</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Torrance County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>3</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Valencia County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>7</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,27 +1458,29 @@
           <t>Catron County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>0</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1490,61 @@
           <t>Harding County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>0</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$943,744,428</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.15%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-16.09%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>70.47%</t>
         </is>
       </c>
     </row>
@@ -1499,8 +1599,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>301</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1529,8 +1631,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>147</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1559,8 +1663,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>324</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1589,8 +1695,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B5">
-        <v>772</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1664,8 +1772,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>275</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1694,8 +1804,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>227</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1724,8 +1836,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>140</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1754,8 +1868,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>38</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1784,8 +1900,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>55</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1814,8 +1932,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>37</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1844,8 +1964,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>772</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1919,8 +2041,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>82</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1949,8 +2073,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>79</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1979,8 +2105,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>54</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2009,8 +2137,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>79</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2039,8 +2169,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2069,8 +2201,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>231</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2099,8 +2233,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2129,8 +2265,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>72</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2159,8 +2297,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2189,8 +2329,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>146</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2219,8 +2361,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2249,8 +2393,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>772</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/new-mexico_overview.xlsx
+++ b/data/processed/state_overviews/new-mexico_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,219 +431,219 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bernalillo County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$346,917,394</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.00%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.47%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>71.02%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chaves County</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$5,323,393</t>
+          <t>$943,744,428</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>10.15%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-49.67%</t>
+          <t>-16.09%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>70.47%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cibola County</t>
+          <t>Bernalillo County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>283</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$23,598,736</t>
+          <t>$346,917,394</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>11.00%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-4.07%</t>
+          <t>-11.47%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>71.02%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colfax County</t>
+          <t>Chaves County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$722,348</t>
+          <t>$5,323,393</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-38.16%</t>
+          <t>-49.67%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Curry County</t>
+          <t>Cibola County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,635,056</t>
+          <t>$23,598,736</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.93%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-12.67%</t>
+          <t>-4.07%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>De Baca County</t>
+          <t>Colfax County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$2,170,523</t>
+          <t>$722,348</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-51.82%</t>
+          <t>-38.16%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -655,391 +655,391 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Doña Ana County</t>
+          <t>Curry County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$71,467,566</t>
+          <t>$2,635,056</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.56%</t>
+          <t>4.93%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-21.42%</t>
+          <t>-12.67%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71.70%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eddy County</t>
+          <t>De Baca County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$22,081,278</t>
+          <t>$2,170,523</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.62%</t>
+          <t>8.62%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-12.53%</t>
+          <t>-51.82%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Doña Ana County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$8,019,242</t>
+          <t>$71,467,566</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.73%</t>
+          <t>10.56%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-44.66%</t>
+          <t>-21.42%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>71.70%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Guadalupe County</t>
+          <t>Eddy County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$602,405</t>
+          <t>$22,081,278</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-2.16%</t>
+          <t>9.62%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.34%</t>
+          <t>-12.53%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hidalgo County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$7,780,850</t>
+          <t>$8,019,242</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15.82%</t>
+          <t>4.73%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-15.03%</t>
+          <t>-44.66%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lea County</t>
+          <t>Guadalupe County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$12,805,810</t>
+          <t>$602,405</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>-2.16%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-27.18%</t>
+          <t>-11.34%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>80.95%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Hidalgo County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$2,057,788</t>
+          <t>$7,780,850</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23.41%</t>
+          <t>15.82%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>-15.03%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Los Alamos County</t>
+          <t>Lea County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$2,745,715</t>
+          <t>$12,805,810</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.41%</t>
+          <t>8.15%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-2.83%</t>
+          <t>-27.18%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>80.95%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Luna County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$3,950,441</t>
+          <t>$2,057,788</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.79%</t>
+          <t>23.41%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-41.07%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>McKinley County</t>
+          <t>Los Alamos County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$56,673,971</t>
+          <t>$2,745,715</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12.34%</t>
+          <t>21.41%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-40.87%</t>
+          <t>-2.83%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mora County</t>
+          <t>Luna County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$2,899,662</t>
+          <t>$3,950,441</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.59%</t>
+          <t>2.79%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-28.59%</t>
+          <t>-41.07%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Otero County</t>
+          <t>McKinley County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$18,190,239</t>
+          <t>$56,673,971</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.48%</t>
+          <t>12.34%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-31.08%</t>
+          <t>-40.87%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Quay County</t>
+          <t>Mora County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$4,674,294</t>
+          <t>$2,899,662</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-6.49%</t>
+          <t>11.59%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-64.18%</t>
+          <t>-28.59%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1071,59 +1071,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rio Arriba County</t>
+          <t>Otero County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$31,207,765</t>
+          <t>$18,190,239</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.97%</t>
+          <t>9.48%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-20.58%</t>
+          <t>-31.08%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>76.47%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Roosevelt County</t>
+          <t>Quay County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$9,554,201</t>
+          <t>$4,674,294</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-6.49%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-64.56%</t>
+          <t>-64.18%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1135,416 +1135,384 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>San Juan County</t>
+          <t>Rio Arriba County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$57,759,187</t>
+          <t>$31,207,765</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.08%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-74.99%</t>
+          <t>-20.58%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>75.61%</t>
+          <t>76.47%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>San Miguel County</t>
+          <t>Roosevelt County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,467,541</t>
+          <t>$9,554,201</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.55%</t>
+          <t>-0.92%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-51.02%</t>
+          <t>-64.56%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sandoval County</t>
+          <t>San Juan County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$9,362,716</t>
+          <t>$57,759,187</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13.38%</t>
+          <t>5.08%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-9.00%</t>
+          <t>-74.99%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>75.61%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Santa Fe County</t>
+          <t>San Miguel County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$179,678,525</t>
+          <t>$1,467,541</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12.94%</t>
+          <t>-1.55%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-6.35%</t>
+          <t>-51.02%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>60.84%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sierra County</t>
+          <t>Sandoval County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$5,472,921</t>
+          <t>$9,362,716</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>13.38%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-68.81%</t>
+          <t>-9.00%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>68.75%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Socorro County</t>
+          <t>Santa Fe County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$20,738,837</t>
+          <t>$179,678,525</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17.30%</t>
+          <t>12.94%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>-6.35%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.84%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Taos County</t>
+          <t>Sierra County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$17,893,635</t>
+          <t>$5,472,921</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6.47%</t>
+          <t>2.68%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-20.04%</t>
+          <t>-68.81%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Torrance County</t>
+          <t>Socorro County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$5,917</t>
+          <t>$20,738,837</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22.86%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21.66%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Taos County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$2,457,415</t>
+          <t>$17,893,635</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10.53%</t>
+          <t>6.47%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-16.60%</t>
+          <t>-20.04%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Valencia County</t>
+          <t>Torrance County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$12,829,057</t>
+          <t>$5,917</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23.30%</t>
+          <t>22.86%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-65.39%</t>
+          <t>21.66%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Catron County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,457,415</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.53%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-16.60%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Harding County</t>
+          <t>Valencia County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$12,829,057</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>23.30%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-65.39%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>772</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>$943,744,428</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>10.15%</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>70.47%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1564,160 +1532,192 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$329,867,767</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.46%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-11.34%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>70.76%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$215,756,702</t>
+          <t>$943,744,428</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.56%</t>
+          <t>10.15%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-21.42%</t>
+          <t>-16.09%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.71%</t>
+          <t>70.47%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$398,119,959</t>
+          <t>$329,867,767</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.48%</t>
+          <t>11.46%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-17.47%</t>
+          <t>-11.34%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.99%</t>
+          <t>70.76%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$943,744,428</t>
+          <t>$215,756,702</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.15%</t>
+          <t>10.56%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.09%</t>
+          <t>-21.42%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.47%</t>
+          <t>68.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3rd Congressional district</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$398,119,959</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.48%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-17.47%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>70.99%</t>
         </is>
       </c>
     </row>
@@ -1742,34 +1742,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1801,128 +1801,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$232,569,936</t>
+          <t>$523,482,818</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.78%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.58%</t>
+          <t>-10.11%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.13%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>227</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$42,529,317</t>
+          <t>$232,569,936</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.14%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.19%</t>
+          <t>-20.58%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.71%</t>
+          <t>73.13%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$111,894,836</t>
+          <t>$42,529,317</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>16.14%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-15.21%</t>
+          <t>-11.19%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.05%</t>
+          <t>70.71%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$523,482,818</t>
+          <t>$111,894,836</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.11%</t>
+          <t>-15.21%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>71.05%</t>
         </is>
       </c>
     </row>
@@ -2011,34 +2011,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2102,7 +2102,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2134,7 +2134,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2294,7 +2294,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2326,64 +2326,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$288,254,450</t>
+          <t>$62,995,026</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>15.05%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-21.42%</t>
+          <t>-9.69%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>73.97%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$62,995,026</t>
+          <t>$288,254,450</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15.05%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-9.69%</t>
+          <t>-21.42%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>73.97%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/new-mexico_overview.xlsx
+++ b/data/processed/state_overviews/new-mexico_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>70.47%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>772</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$943,744,428</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>10.15%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.47%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.47%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>772</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$943,744,428</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.15%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.47%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>71.02%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>283</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$346,917,394</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.00%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.47%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>71.02%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$5,323,393</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.77%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-49.67%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$23,598,736</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.80%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-4.07%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$722,348</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.53%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-38.16%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,635,056</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.93%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-12.67%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$2,170,523</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-51.82%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>71.70%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$71,467,566</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>10.56%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-21.42%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>71.70%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$22,081,278</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9.62%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-12.53%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$8,019,242</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>4.73%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-44.66%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$602,405</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-2.16%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-11.34%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$7,780,850</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>15.82%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-15.03%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>80.95%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$12,805,810</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>8.15%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-27.18%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>80.95%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$2,057,788</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>23.41%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.28%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$2,745,715</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>21.41%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-2.83%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$3,950,441</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2.79%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-41.07%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$56,673,971</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>12.34%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-40.87%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$2,899,662</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>11.59%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-28.59%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$18,190,239</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>9.48%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-31.08%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$4,674,294</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>-6.49%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-64.18%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>76.47%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$31,207,765</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>10.97%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-20.58%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>76.47%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$9,554,201</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>-0.92%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-64.56%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>75.61%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$57,759,187</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>5.08%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-74.99%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>75.61%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$1,467,541</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>-1.55%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-51.02%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$9,362,716</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>13.38%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-9.00%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>68.75%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>60.84%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>143</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$179,678,525</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>12.94%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-6.35%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>60.84%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$5,472,921</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2.68%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-68.81%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$20,738,837</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>17.30%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>4.09%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$17,893,635</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>6.47%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-20.04%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$5,917</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>22.86%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>21.66%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$2,457,415</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>10.53%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-16.60%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$12,829,057</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>23.30%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-65.39%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1537,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1569,27 +1569,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1601,123 +1601,123 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.47%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>772</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$943,744,428</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.15%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.47%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>70.76%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>301</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$329,867,767</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.46%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.34%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>70.76%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>68.71%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>147</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$215,756,702</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10.56%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-21.42%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>68.71%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>70.99%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>324</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$398,119,959</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.48%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-17.47%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>70.99%</t>
         </is>
       </c>
     </row>
@@ -1742,187 +1742,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.00%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>275</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$32,042,461</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>8.80%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-18.95%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>73.13%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$523,482,818</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>$232,569,936</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.11%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>-20.58%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>70.71%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$232,569,936</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.78%</t>
+          <t>$42,529,317</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-20.58%</t>
+          <t>16.14%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.13%</t>
+          <t>-11.19%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>71.05%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$42,529,317</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.14%</t>
+          <t>$111,894,836</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.19%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.71%</t>
+          <t>-15.21%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>72.73%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$111,894,836</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>$523,482,818</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-15.21%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.05%</t>
+          <t>-10.11%</t>
         </is>
       </c>
     </row>
@@ -1934,27 +1934,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>67.57%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,225,060</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>11.07%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-29.97%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67.57%</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>70.47%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>772</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$943,744,428</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.15%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>70.47%</t>
         </is>
       </c>
     </row>
@@ -2011,155 +2011,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>63.41%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$15,970,715</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>14.60%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-8.14%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>63.41%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>74.68%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$76,408,980</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>10.84%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.60%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>74.68%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>61.11%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$17,888,545</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.95%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-5.47%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>61.11%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>77.22%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$143,030,753</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.87%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-18.30%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>77.22%</t>
         </is>
       </c>
     </row>
@@ -2171,219 +2171,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$79,380,406</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-2.70%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-14.15%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.56%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>231</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$184,613,607</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.06%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-19.80%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.56%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,603,032</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.37%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-8.67%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$72,209,600</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>16.31%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-21.25%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>65.28%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$1,389,314</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>14.87%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-5.41%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>73.97%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$62,995,026</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.05%</t>
+          <t>$288,254,450</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-9.69%</t>
+          <t>8.71%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>-21.42%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$288,254,450</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.71%</t>
+          <t>$62,995,026</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-21.42%</t>
+          <t>15.05%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>73.97%</t>
+          <t>-9.69%</t>
         </is>
       </c>
     </row>
@@ -2395,27 +2395,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>70.47%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>772</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$943,744,428</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.15%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>70.47%</t>
         </is>
       </c>
     </row>
